--- a/thermax_backend/templates/spg_load_list_template.xlsx
+++ b/thermax_backend/templates/spg_load_list_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F96BAD-7468-4B3F-B598-5FE153745AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7840015C-9D4D-40AF-B08B-2205E0E530F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="678" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="9" r:id="rId1"/>
@@ -1396,6 +1396,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1447,41 +1483,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1489,6 +1525,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1498,74 +1546,53 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1589,33 +1616,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2307,7 +2307,7 @@
   </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:G8"/>
     </sheetView>
   </sheetViews>
@@ -2956,50 +2956,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
@@ -3013,76 +3013,76 @@
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3346,6 +3346,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -3356,12 +3362,6 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -3373,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3385,533 +3385,534 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="76"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="78"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="78"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="89"/>
     </row>
     <row r="5" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
     </row>
     <row r="6" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="73"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="73"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="85"/>
     </row>
     <row r="8" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="85"/>
     </row>
     <row r="9" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="73"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="85"/>
     </row>
     <row r="10" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="85"/>
     </row>
     <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="73"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="85"/>
     </row>
     <row r="12" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="73"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="85"/>
     </row>
     <row r="13" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="73"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="85"/>
     </row>
     <row r="14" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="82"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="87"/>
     </row>
     <row r="15" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="78"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="89"/>
     </row>
     <row r="16" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="78"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="89"/>
     </row>
     <row r="17" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="78"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="89"/>
     </row>
     <row r="18" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="80"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="83"/>
     </row>
     <row r="19" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="85"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="74"/>
     </row>
     <row r="20" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>1</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="87"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
     </row>
     <row r="21" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>2</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="90"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="79"/>
     </row>
     <row r="22" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>3</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="87"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="76"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <v>4</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B20:Q20"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B22:Q22"/>
-    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B5:Q5"/>
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B7:Q7"/>
     <mergeCell ref="B8:Q8"/>
@@ -3924,12 +3925,11 @@
     <mergeCell ref="B15:Q15"/>
     <mergeCell ref="B16:Q16"/>
     <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B22:Q22"/>
+    <mergeCell ref="B23:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -3967,25 +3967,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="112"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -4094,195 +4094,195 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="115"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="117"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="41"/>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="98"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="103"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="109"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="106"/>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="42"/>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="98"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="103"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="109"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106"/>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="42"/>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="103"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="109"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="106"/>
     </row>
     <row r="11" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="42"/>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="109"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
     </row>
     <row r="12" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="104"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="113"/>
     </row>
     <row r="13" spans="1:17" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -4294,30 +4294,25 @@
       <c r="C13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="107"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="A6:Q6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="E7:Q7"/>
     <mergeCell ref="A11:C11"/>
@@ -4328,6 +4323,11 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="E9:Q9"/>
     <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4336,14 +4336,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="896f6421-0ffe-4cdf-9397-f39e719ecdb4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4352,14 +4344,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<titus xmlns="http://schemas.titus.com/TitusProperties/">
-  <TitusGUID xmlns="">b32b142f-e1a3-4636-987f-842931850c11</TitusGUID>
-  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkludGVybmFsIn1dfV19</TitusMetadata>
-</titus>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="896f6421-0ffe-4cdf-9397-f39e719ecdb4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EBE86441A5C46D40841D4A404E54E90E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6cc695d1f7ca8b3a90a74925c5d3aae6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="896f6421-0ffe-4cdf-9397-f39e719ecdb4" xmlns:ns4="47b22ed6-09de-4eef-8e70-1f7bccb8aa81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd4909656517cd56a90100c6118c77f9" ns3:_="" ns4:_="">
     <xsd:import namespace="896f6421-0ffe-4cdf-9397-f39e719ecdb4"/>
@@ -4600,7 +4593,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<titus xmlns="http://schemas.titus.com/TitusProperties/">
+  <TitusGUID xmlns="">b32b142f-e1a3-4636-987f-842931850c11</TitusGUID>
+  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkludGVybmFsIn1dfV19</TitusMetadata>
+</titus>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B7B0113-BE9B-45CD-AF7D-778C37F8E827}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC96BEBB-37FE-4C78-B1A0-F4825207DA4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="47b22ed6-09de-4eef-8e70-1f7bccb8aa81"/>
@@ -4617,24 +4625,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B7B0113-BE9B-45CD-AF7D-778C37F8E827}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3EF0A4F-E3E9-4C94-9786-69F046D3300A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B05BAC5-CB6B-4024-809B-097903E169FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4651,4 +4642,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3EF0A4F-E3E9-4C94-9786-69F046D3300A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+    <ds:schemaRef ds:uri=""/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>